--- a/TUCUNDUVA.xlsx
+++ b/TUCUNDUVA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{15C3503D-519B-42C4-B46E-6B78B21BEE73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3EB98D19-9808-4A20-BBFA-C0297F2506C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1219,7 +1219,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{0CF1B122-F9DF-4091-92AC-C1744F124170}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{4C169EC9-EDD8-433B-B502-B0F7F5D1EA68}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1249,10 +1249,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97799AED-A6D8-4474-BC7D-FE62D726C18F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA3D5707-A181-4DD7-B966-34697675E0EF}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1290,7 +1290,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{688AD505-1A4C-4B4D-861E-AD927358C9C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2403165A-61B9-4008-96F0-FC111CE32C16}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1353,7 +1353,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B1B6A1F-071F-4A30-86C7-6069208320FD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A161E893-4209-4521-96AB-9976653F1CB1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1372,7 +1372,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5AF6803-8979-2C68-9CA6-065E798E906F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FD071F0-27DE-4C55-FDBF-51AC206D276B}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1421,7 +1421,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C7CBC2E-9AB2-3BE5-EB63-D2DCDA22E6E6}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB6ACA65-DB4C-9D15-4337-6E6A2F1F9491}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1440,7 +1440,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C54C36A8-6734-0743-480D-3777036C943E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC0167A9-1966-FFDB-143A-5C7FDF6EC143}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1471,7 +1471,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91D446CE-BE86-E868-FBB7-57A7F81E6A7C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8BCA61B-69A5-19BC-F431-D89D1FD18779}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1502,7 +1502,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0B0E95E-838D-7E78-A818-DEA785E6BCCE}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A252A543-3673-9D0A-E477-C54E4278021C}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1545,7 +1545,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA8B6F50-B52C-4593-9A23-2E823288AA40}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{075089A6-1816-4579-A60A-932DAC6F5CE1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1583,7 +1583,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2E4C016-B306-4E48-8B4A-9A4EC54CA777}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67C768E4-C94A-4404-9D50-1F41A9E75199}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1626,7 +1626,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{414BBF98-2236-4D87-8D2E-FE7BD220AE7F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62B90FEE-59FC-40ED-8F2A-B682347AAB93}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1939,7 +1939,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95BD2089-4051-44EE-9D1A-06A4F63FE551}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A728BA-4FBF-4F74-AC8A-5B9AEE85E067}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>

--- a/TUCUNDUVA.xlsx
+++ b/TUCUNDUVA.xlsx
@@ -8,25 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3EB98D19-9808-4A20-BBFA-C0297F2506C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C37DF3B2-3840-4A77-BC1A-122394544C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Paineis DARQ" sheetId="7" r:id="rId1"/>
+    <sheet name="PAINEIS DARQ" sheetId="6" r:id="rId1"/>
     <sheet name="DESFAZIMENTOS" sheetId="1" r:id="rId2"/>
     <sheet name="MATERIAIS-FORNECIDOS" sheetId="2" r:id="rId3"/>
     <sheet name="DATA-LIMITE-REQUISICOES" sheetId="3" r:id="rId4"/>
     <sheet name="CPIP" sheetId="4" r:id="rId5"/>
-    <sheet name="Recolhimento x Eliminacao" sheetId="5" r:id="rId6"/>
-    <sheet name="Desarquivamentos Pendentes" sheetId="6" r:id="rId7"/>
+    <sheet name="RECOLHIMENTO X ELIMINAÇÃO" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="304">
   <si>
     <t>COMARCA</t>
   </si>
@@ -938,15 +937,6 @@
   </si>
   <si>
     <t>Não finalizou procedimentos de eliminação</t>
-  </si>
-  <si>
-    <t>PEDIDOS PENDENTES</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>TUCUNDUVA</t>
   </si>
 </sst>
 </file>
@@ -1132,7 +1122,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1199,27 +1189,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{4C169EC9-EDD8-433B-B502-B0F7F5D1EA68}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{7ED5C486-3941-4E21-AECC-8B0940E25A05}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1249,10 +1224,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA3D5707-A181-4DD7-B966-34697675E0EF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BACAD03-E1A6-4554-A71F-CAEF2443D170}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1290,7 +1265,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2403165A-61B9-4008-96F0-FC111CE32C16}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B8808E7-F6B6-44B2-900A-CA1966357349}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1353,7 +1328,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A161E893-4209-4521-96AB-9976653F1CB1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEE5846E-4FB4-472D-9A4F-E54E4060D319}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1372,7 +1347,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FD071F0-27DE-4C55-FDBF-51AC206D276B}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0D0FBD9-94EE-637E-E666-F955BB709913}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1421,7 +1396,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB6ACA65-DB4C-9D15-4337-6E6A2F1F9491}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07D7905B-749F-0972-7819-4A0BD750738B}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1440,7 +1415,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC0167A9-1966-FFDB-143A-5C7FDF6EC143}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD3C2AE3-1216-5270-1E18-80EAB00C3987}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1471,7 +1446,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8BCA61B-69A5-19BC-F431-D89D1FD18779}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DBBF792-C28A-E7E0-B5A3-E561413A19B2}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1502,7 +1477,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A252A543-3673-9D0A-E477-C54E4278021C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C567A0D-C388-EACD-D86B-96A8BC241DC3}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1545,7 +1520,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{075089A6-1816-4579-A60A-932DAC6F5CE1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEEB99B8-83FC-47D3-9C0A-15AF55E2B87F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1583,7 +1558,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67C768E4-C94A-4404-9D50-1F41A9E75199}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1FFFF04-209C-44FD-8C2F-67FD98FA89D4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1626,7 +1601,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62B90FEE-59FC-40ED-8F2A-B682347AAB93}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5591C53A-6272-41A7-BEFA-9B2EF59EBBFE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1939,7 +1914,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A728BA-4FBF-4F74-AC8A-5B9AEE85E067}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{069E1455-0C9D-4BDD-B5BC-2008E6181DC1}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1951,98 +1926,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="12.5703125" style="34"/>
-    <col min="6" max="6" width="2" style="34" customWidth="1"/>
-    <col min="7" max="16" width="13.42578125" style="34" customWidth="1"/>
-    <col min="17" max="16384" width="12.5703125" style="34"/>
+    <col min="1" max="5" width="12.5703125" style="29"/>
+    <col min="6" max="6" width="2" style="29" customWidth="1"/>
+    <col min="7" max="16" width="13.42578125" style="29" customWidth="1"/>
+    <col min="17" max="16384" width="12.5703125" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F1" s="33"/>
+      <c r="F1" s="28"/>
     </row>
     <row r="2" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F2" s="33"/>
+      <c r="F2" s="28"/>
     </row>
     <row r="3" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F3" s="33"/>
+      <c r="F3" s="28"/>
     </row>
     <row r="4" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="33"/>
+      <c r="F4" s="28"/>
     </row>
     <row r="5" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="33"/>
+      <c r="F5" s="28"/>
     </row>
     <row r="6" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="33"/>
+      <c r="F6" s="28"/>
     </row>
     <row r="7" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="33"/>
+      <c r="F7" s="28"/>
     </row>
     <row r="8" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="33"/>
+      <c r="F8" s="28"/>
     </row>
     <row r="9" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="33"/>
+      <c r="F9" s="28"/>
     </row>
     <row r="10" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="33"/>
+      <c r="F10" s="28"/>
     </row>
     <row r="11" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="33"/>
+      <c r="F11" s="28"/>
     </row>
     <row r="12" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="33"/>
+      <c r="F12" s="28"/>
     </row>
     <row r="13" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="33"/>
+      <c r="F13" s="28"/>
     </row>
     <row r="14" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F14" s="33"/>
+      <c r="F14" s="28"/>
     </row>
     <row r="15" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F15" s="33"/>
+      <c r="F15" s="28"/>
     </row>
     <row r="16" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="33"/>
+      <c r="F16" s="28"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="33"/>
+      <c r="F17" s="28"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="33"/>
+      <c r="F18" s="28"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="33"/>
+      <c r="F19" s="28"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="33"/>
+      <c r="F20" s="28"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="33"/>
+      <c r="F21" s="28"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="33"/>
+      <c r="F22" s="28"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="33"/>
+      <c r="F23" s="28"/>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="33"/>
+      <c r="F24" s="28"/>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="33"/>
+      <c r="F25" s="28"/>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="33"/>
+      <c r="F26" s="28"/>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="33"/>
+      <c r="F27" s="28"/>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="33"/>
+      <c r="F28" s="28"/>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="33"/>
+      <c r="F29" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5541,52 +5516,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="6" width="13" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>305</v>
-      </c>
-      <c r="E1" s="29">
-        <v>15072</v>
-      </c>
-      <c r="F1" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
-        <v>306</v>
-      </c>
-      <c r="B2" s="32">
-        <v>13</v>
-      </c>
-      <c r="C2" s="30">
-        <v>8.5967464621081863E-4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/TUCUNDUVA.xlsx
+++ b/TUCUNDUVA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C37DF3B2-3840-4A77-BC1A-122394544C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6017C852-8DFD-4FD5-9E4F-6D4F7B13D40E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1194,7 +1194,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{7ED5C486-3941-4E21-AECC-8B0940E25A05}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{9AA06F9F-E86B-430D-8F2C-716B1B6FA27A}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1224,10 +1224,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BACAD03-E1A6-4554-A71F-CAEF2443D170}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F3978C5-351E-4385-AD92-066E77472B77}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1265,7 +1265,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B8808E7-F6B6-44B2-900A-CA1966357349}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{529C66AC-6857-45C9-A50E-10DEDADBBE89}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1328,7 +1328,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEE5846E-4FB4-472D-9A4F-E54E4060D319}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5C6A1EC-3B1F-4787-A4E0-0B25D5482108}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1347,7 +1347,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0D0FBD9-94EE-637E-E666-F955BB709913}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8DEA86A-0E50-32FD-C08B-CC92BC9B1CCA}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1396,7 +1396,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07D7905B-749F-0972-7819-4A0BD750738B}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70DF5706-64B3-7DE4-E487-0833B196042A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1415,7 +1415,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD3C2AE3-1216-5270-1E18-80EAB00C3987}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EFF1F5E-1162-8389-401C-F1891EDF005D}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1446,7 +1446,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DBBF792-C28A-E7E0-B5A3-E561413A19B2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F58FF759-DC72-88A1-90C5-05CA647F49D8}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1477,7 +1477,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C567A0D-C388-EACD-D86B-96A8BC241DC3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06344156-77C0-8493-CC11-9567C8927679}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1520,7 +1520,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEEB99B8-83FC-47D3-9C0A-15AF55E2B87F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5A7B53A-1BCD-4CFE-B38E-349435325A62}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1558,7 +1558,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1FFFF04-209C-44FD-8C2F-67FD98FA89D4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78C430B3-5158-4EA6-990E-571ED08EDDB3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1583,50 +1583,6 @@
     </xdr:pic>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>315640</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>143650</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Imagem 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5591C53A-6272-41A7-BEFA-9B2EF59EBBFE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1485900" y="6219825"/>
-          <a:ext cx="9421540" cy="4525150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1914,7 +1870,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{069E1455-0C9D-4BDD-B5BC-2008E6181DC1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5982AC6-5E14-4020-A1CF-3416A33BD332}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
